--- a/test_env/database_creation/rawdata/annualdata.xlsx
+++ b/test_env/database_creation/rawdata/annualdata.xlsx
@@ -782,13 +782,13 @@
         <v>1991</v>
       </c>
       <c r="B25" t="n">
-        <v>1.611659943816009</v>
+        <v>1.605796365659359</v>
       </c>
       <c r="C25" t="n">
         <v>0.663940271</v>
       </c>
       <c r="D25" t="n">
-        <v>2.427417064773902</v>
+        <v>2.418585580357664</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>1992</v>
       </c>
       <c r="B26" t="n">
-        <v>1.597367243579461</v>
+        <v>1.595170373197115</v>
       </c>
       <c r="C26" t="n">
         <v>0.658293589</v>
       </c>
       <c r="D26" t="n">
-        <v>2.426527115365027</v>
+        <v>2.423189895590971</v>
       </c>
     </row>
     <row r="27">
@@ -866,13 +866,13 @@
         <v>1997</v>
       </c>
       <c r="B31" t="n">
-        <v>1.557548811605944</v>
+        <v>1.559211995598527</v>
       </c>
       <c r="C31" t="n">
         <v>0.6902036</v>
       </c>
       <c r="D31" t="n">
-        <v>2.256651242627457</v>
+        <v>2.259060943174633</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>1998</v>
       </c>
       <c r="B32" t="n">
-        <v>1.567660016816226</v>
+        <v>1.567714000147012</v>
       </c>
       <c r="C32" t="n">
         <v>0.684810923</v>
       </c>
       <c r="D32" t="n">
-        <v>2.28918664139974</v>
+        <v>2.289265470940818</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>1999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.562922593102546</v>
+        <v>1.564079939769674</v>
       </c>
       <c r="C33" t="n">
         <v>0.690682024</v>
       </c>
       <c r="D33" t="n">
-        <v>2.262868496346657</v>
+        <v>2.264544154068898</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>2000</v>
       </c>
       <c r="B34" t="n">
-        <v>1.550794040910641</v>
+        <v>1.554941631335987</v>
       </c>
       <c r="C34" t="n">
         <v>0.710701581</v>
       </c>
       <c r="D34" t="n">
-        <v>2.182060772579935</v>
+        <v>2.187896682526145</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>2001</v>
       </c>
       <c r="B35" t="n">
-        <v>1.549670117056233</v>
+        <v>1.550489742549896</v>
       </c>
       <c r="C35" t="n">
         <v>0.692407769</v>
       </c>
       <c r="D35" t="n">
-        <v>2.238088863870379</v>
+        <v>2.239272596246528</v>
       </c>
     </row>
     <row r="36">
@@ -964,13 +964,13 @@
         <v>2004</v>
       </c>
       <c r="B38" t="n">
-        <v>1.425592434201416</v>
+        <v>1.427985993580319</v>
       </c>
       <c r="C38" t="n">
         <v>0.73391155</v>
       </c>
       <c r="D38" t="n">
-        <v>1.942458098937694</v>
+        <v>1.945719472026729</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>2005</v>
       </c>
       <c r="B39" t="n">
-        <v>1.40002641424073</v>
+        <v>1.410548045123722</v>
       </c>
       <c r="C39" t="n">
         <v>0.749427571</v>
       </c>
       <c r="D39" t="n">
-        <v>1.868127712959109</v>
+        <v>1.882167269668976</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>2006</v>
       </c>
       <c r="B40" t="n">
-        <v>1.388313963397991</v>
+        <v>1.405378496021678</v>
       </c>
       <c r="C40" t="n">
         <v>0.758150692</v>
       </c>
       <c r="D40" t="n">
-        <v>1.831184720989466</v>
+        <v>1.853692822352101</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>2007</v>
       </c>
       <c r="B41" t="n">
-        <v>1.379688372479895</v>
+        <v>1.408893757585069</v>
       </c>
       <c r="C41" t="n">
         <v>0.768047272</v>
       </c>
       <c r="D41" t="n">
-        <v>1.796358665381595</v>
+        <v>1.834384170021593</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>2008</v>
       </c>
       <c r="B42" t="n">
-        <v>1.360661427538693</v>
+        <v>1.380351075228878</v>
       </c>
       <c r="C42" t="n">
         <v>0.760138426</v>
       </c>
       <c r="D42" t="n">
-        <v>1.790017950676122</v>
+        <v>1.815920663940857</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>2009</v>
       </c>
       <c r="B43" t="n">
-        <v>1.352045644532072</v>
+        <v>1.363977034209024</v>
       </c>
       <c r="C43" t="n">
         <v>0.766817019</v>
       </c>
       <c r="D43" t="n">
-        <v>1.763192014563349</v>
+        <v>1.778751645324429</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>2010</v>
       </c>
       <c r="B44" t="n">
-        <v>1.374690287479232</v>
+        <v>1.380901000651561</v>
       </c>
       <c r="C44" t="n">
         <v>0.781701864</v>
       </c>
       <c r="D44" t="n">
-        <v>1.758586426345316</v>
+        <v>1.766531543861792</v>
       </c>
     </row>
     <row r="45">
@@ -1090,13 +1090,13 @@
         <v>2013</v>
       </c>
       <c r="B47" t="n">
-        <v>1.361072189687606</v>
+        <v>1.342218401785662</v>
       </c>
       <c r="C47" t="n">
         <v>0.794820537</v>
       </c>
       <c r="D47" t="n">
-        <v>1.712427052809792</v>
+        <v>1.688706241602388</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>2014</v>
       </c>
       <c r="B48" t="n">
-        <v>1.338776677138519</v>
+        <v>1.331246744782096</v>
       </c>
       <c r="C48" t="n">
         <v>0.797185022</v>
       </c>
       <c r="D48" t="n">
-        <v>1.679380119034046</v>
+        <v>1.669934466960038</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>2015</v>
       </c>
       <c r="B49" t="n">
-        <v>1.326992189581744</v>
+        <v>1.315140810373198</v>
       </c>
       <c r="C49" t="n">
         <v>0.802386545</v>
       </c>
       <c r="D49" t="n">
-        <v>1.653806632041349</v>
+        <v>1.639036470100827</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>2016</v>
       </c>
       <c r="B50" t="n">
-        <v>1.318509483997258</v>
+        <v>1.304783119122762</v>
       </c>
       <c r="C50" t="n">
         <v>0.80285518</v>
       </c>
       <c r="D50" t="n">
-        <v>1.64227561438572</v>
+        <v>1.625178676835295</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>2017</v>
       </c>
       <c r="B51" t="n">
-        <v>1.317961609015017</v>
+        <v>1.302501009379456</v>
       </c>
       <c r="C51" t="n">
         <v>0.814775397</v>
       </c>
       <c r="D51" t="n">
-        <v>1.617576590883509</v>
+        <v>1.598601300647098</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>2018</v>
       </c>
       <c r="B52" t="n">
-        <v>1.298223095620389</v>
+        <v>1.296052864122837</v>
       </c>
       <c r="C52" t="n">
         <v>0.816034876</v>
       </c>
       <c r="D52" t="n">
-        <v>1.590891680982993</v>
+        <v>1.588232197226381</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>2019</v>
       </c>
       <c r="B53" t="n">
-        <v>1.282086093880505</v>
+        <v>1.276281382275522</v>
       </c>
       <c r="C53" t="n">
         <v>0.823832715</v>
       </c>
       <c r="D53" t="n">
-        <v>1.556245668006162</v>
+        <v>1.549199684641708</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>2020</v>
       </c>
       <c r="B54" t="n">
-        <v>1.192528000569879</v>
+        <v>1.190921954421548</v>
       </c>
       <c r="C54" t="n">
         <v>0.652404788</v>
       </c>
       <c r="D54" t="n">
-        <v>1.827895843967778</v>
+        <v>1.825434111347368</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>2021</v>
       </c>
       <c r="B55" t="n">
-        <v>1.161069345973242</v>
+        <v>1.150148931499757</v>
       </c>
       <c r="C55" t="n">
         <v>0.676752312</v>
       </c>
       <c r="D55" t="n">
-        <v>1.715648879782833</v>
+        <v>1.699512378614168</v>
       </c>
     </row>
   </sheetData>
